--- a/public/template/Database/template_perajin.xlsx
+++ b/public/template/Database/template_perajin.xlsx
@@ -5,22 +5,25 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laragon-project\PKL_DLH_UJI22\clone_pkl\PKL_DLH_uji2\public\template\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laragon-project\PKL_DLH_UJI22\clone_pkl\PKL_DLH_uji2\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5479741-50D4-496E-922E-C49C0537FF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2E9AA-43FF-4438-A47E-87A824F6D54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template Perajin" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+  <si>
+    <t>TEMPLATE IMPORT DATA PERAJIN</t>
+  </si>
   <si>
     <t>Nama Perajin</t>
   </si>
@@ -28,9 +31,6 @@
     <t>Alamat</t>
   </si>
   <si>
-    <t>Kabupaten</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -43,68 +43,68 @@
     <t>Kontak</t>
   </si>
   <si>
-    <t>Nomor Izin</t>
-  </si>
-  <si>
     <t>Tanggal SK</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Perajin Mebel Pak Slamet</t>
-  </si>
-  <si>
-    <t>Desa Karanganyar RT 02 RW 03</t>
-  </si>
-  <si>
-    <t>Kabupaten Jepara</t>
-  </si>
-  <si>
-    <t>Slamet Riyadi</t>
-  </si>
-  <si>
-    <t>085678901234</t>
-  </si>
-  <si>
-    <t>SK.654/2024</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
+    <t>Perajin Mebel Jati</t>
+  </si>
+  <si>
+    <t>Jl. Kerajinan No. 15</t>
+  </si>
+  <si>
+    <t>Semarang</t>
+  </si>
+  <si>
+    <t>Budi Santoso</t>
+  </si>
+  <si>
+    <t>081234567890</t>
+  </si>
+  <si>
+    <t>SK-PR-001/2024</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
   </si>
   <si>
     <t>Aktif</t>
   </si>
   <si>
-    <t>Kerajinan Ukir Bu Siti</t>
-  </si>
-  <si>
-    <t>Desa Tahunan RT 01 RW 02</t>
-  </si>
-  <si>
-    <t>Siti Nurjanah</t>
-  </si>
-  <si>
-    <t>086789012345</t>
-  </si>
-  <si>
-    <t>SK.655/2024</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>Dinas Lingkungan Hidup dan Kehutanan Provinsi Jawa Tengah</t>
-  </si>
-  <si>
-    <t>Database Industri Perajin</t>
+    <t>Ukir Kayu Indah</t>
+  </si>
+  <si>
+    <t>Jl. Seni Rupa 20</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Dewi Lestari</t>
+  </si>
+  <si>
+    <t>082345678901</t>
+  </si>
+  <si>
+    <t>SK-PR-002/2024</t>
+  </si>
+  <si>
+    <t>2024-02-10</t>
+  </si>
+  <si>
+    <t>Kabupaten/Kota</t>
+  </si>
+  <si>
+    <t>Nomor SK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -112,8 +112,14 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -126,32 +132,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF15803D"/>
+        <fgColor rgb="FFFF9800"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -160,15 +151,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,35 +464,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -518,80 +518,83 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6">
+        <v>-7.0050999999999997</v>
+      </c>
+      <c r="E6">
+        <v>110.43810000000001</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
-        <v>-6.5888999999999998</v>
-      </c>
-      <c r="E6" s="2">
-        <v>110.6686</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" t="s">
         <v>16</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-6.59</v>
-      </c>
-      <c r="E7" s="2">
-        <v>110.67</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7">
+        <v>-7.5560999999999998</v>
+      </c>
+      <c r="E7">
+        <v>110.83159999999999</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
+      <c r="J7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/template/Database/template_perajin.xlsx
+++ b/public/template/Database/template_perajin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laragon-project\PKL_DLH_UJI22\clone_pkl\PKL_DLH_uji2\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laragon-project\PKL_DLH_UJI22\clone_pkl\PKL_DLH_uji2\public\template\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2E9AA-43FF-4438-A47E-87A824F6D54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB18F0-60A3-462D-A7F7-12185F46E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9800"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -151,18 +151,43 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -173,6 +198,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{643D25D6-07EF-4A79-BF50-4DF3682FC5CF}" name="Table1" displayName="Table1" ref="A5:J7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A5:J7" xr:uid="{643D25D6-07EF-4A79-BF50-4DF3682FC5CF}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{8C3A7D3E-79B8-4BAD-8218-09186BF2FBE6}" name="Nama Perajin"/>
+    <tableColumn id="2" xr3:uid="{62AD28C9-F22E-4F04-89DE-7A10338F19BD}" name="Alamat"/>
+    <tableColumn id="3" xr3:uid="{3A866F18-EF2E-439C-8B72-70DED00E3F78}" name="Kabupaten/Kota"/>
+    <tableColumn id="4" xr3:uid="{359AE213-E1CB-4674-BF8A-96284A635554}" name="Latitude"/>
+    <tableColumn id="5" xr3:uid="{9936C92E-8740-4053-9D1A-443DDBFFD1F8}" name="Longitude"/>
+    <tableColumn id="6" xr3:uid="{F3BBC552-D06A-42A1-920B-AF12241737F1}" name="Penanggung Jawab"/>
+    <tableColumn id="7" xr3:uid="{FFE7B1A9-F0A1-4077-942D-6D3A89DBAF31}" name="Kontak"/>
+    <tableColumn id="8" xr3:uid="{3DB72197-0514-4601-AA8D-6BEAE80D8624}" name="Nomor SK"/>
+    <tableColumn id="9" xr3:uid="{D016C93C-7065-452B-82AB-64935941309C}" name="Tanggal SK"/>
+    <tableColumn id="10" xr3:uid="{DC72064B-55ED-4ABA-841E-60BBBFF4B326}" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,15 +508,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
     <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
@@ -482,48 +526,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -596,5 +640,8 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>